--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,137 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>139500</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>115500</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>24100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>69700</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>95500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -791,14 +803,17 @@
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>49100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -889,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>574500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -897,37 +919,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>24100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,51 +964,55 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>124100</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>96000</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>28000</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>619700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>98900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>15400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>19500</v>
       </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>-3900</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-16900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -988,14 +1020,17 @@
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-29200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,19 +1042,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-17100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1030,22 +1066,25 @@
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>7700</v>
+      <c r="D21" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1065,95 +1104,107 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7000</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
-        <v>7700</v>
+        <v>2600</v>
       </c>
       <c r="F23" s="3">
-        <v>-17500</v>
+        <v>-20300</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-38500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-1800</v>
       </c>
       <c r="E26" s="3">
-        <v>7700</v>
+        <v>2600</v>
       </c>
       <c r="F26" s="3">
-        <v>-17500</v>
+        <v>-20300</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-38500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
-        <v>7700</v>
+        <v>2600</v>
       </c>
       <c r="F27" s="3">
-        <v>-17500</v>
+        <v>-20300</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-38500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,19 +1424,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-8600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1378,43 +1450,49 @@
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
-        <v>7700</v>
+        <v>2600</v>
       </c>
       <c r="F33" s="3">
-        <v>-17500</v>
+        <v>-20300</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-38500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
-        <v>7700</v>
+        <v>2600</v>
       </c>
       <c r="F35" s="3">
-        <v>-17500</v>
+        <v>-20300</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-38500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,22 +1619,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18100</v>
+        <v>488500</v>
       </c>
       <c r="E41" s="3">
-        <v>800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1000</v>
+        <v>460900</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,80 +1681,89 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>52200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>21700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>96800</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
+        <v>118200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,22 +1777,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18300</v>
+        <v>656400</v>
       </c>
       <c r="E46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1400</v>
+        <v>653000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1705,95 +1809,107 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>544000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>544000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>544000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>544000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>755400</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>753400</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,22 +2033,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>562400</v>
+        <v>1413100</v>
       </c>
       <c r="E54" s="3">
-        <v>545100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>545300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>545400</v>
+        <v>1407100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,22 +2095,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>206300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+        <v>237700</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,51 +2125,57 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>6400</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>360700</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
+        <v>331500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2189,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2300</v>
+        <v>573300</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
+        <v>575600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,16 +2221,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>897900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>889400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2108,22 +2253,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57500</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>40700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>49400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>13600</v>
+        <v>500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2381,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59800</v>
+        <v>1471800</v>
       </c>
       <c r="E66" s="3">
-        <v>41900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>49800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>13800</v>
+        <v>1465500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,16 +2491,19 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>244400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>241900</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2353,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2555,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10500</v>
+        <v>-1046100</v>
       </c>
       <c r="E72" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
+        <v>-1044300</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +2683,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>502600</v>
+        <v>-303100</v>
       </c>
       <c r="E76" s="3">
-        <v>503100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>495500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>531600</v>
+        <v>-300200</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
-        <v>7700</v>
+        <v>2600</v>
       </c>
       <c r="F81" s="3">
-        <v>-17500</v>
+        <v>-20300</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-38500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>48100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3022,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>32300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-31000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,25 +3164,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-3100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>-6400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>247100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3402,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>27600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>209800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163900</v>
+      </c>
+      <c r="F8" s="3">
         <v>139500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>115500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>69700</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F9" s="3">
         <v>30500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>20000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>20600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>127700</v>
+      </c>
+      <c r="F10" s="3">
         <v>109000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>95500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>20200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-1000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>49100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,16 +923,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -911,51 +950,63 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>574500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>24100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>23900</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>154200</v>
+      </c>
+      <c r="F17" s="3">
         <v>124100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>96000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>28000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>619700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>98900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F18" s="3">
         <v>15400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>19500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-29200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,16 +1108,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1060,35 +1127,41 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F21" s="3">
         <v>16200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,104 +1180,128 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F22" s="3">
         <v>17300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>16800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>16400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>18300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>13500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-33400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-40200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-662100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-38500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-20300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-33400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-40200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-662100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-38500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-20300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-33400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-40200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-662100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-38500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,16 +1560,22 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1444,55 +1583,67 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-20300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-33400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-40200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-662100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-38500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-20300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-33400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-40200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-662100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-38500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1791,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>489500</v>
+      </c>
+      <c r="F41" s="3">
         <v>488500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>460900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,23 +1863,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F43" s="3">
         <v>54000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>52200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,29 +1895,35 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F44" s="3">
         <v>17100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>21700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,29 +1933,35 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F45" s="3">
         <v>96800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>118200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,23 +1977,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>461900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>610200</v>
+      </c>
+      <c r="F46" s="3">
         <v>656400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>653000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1838,29 +2047,35 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,29 +2085,35 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>798100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>796700</v>
+      </c>
+      <c r="F49" s="3">
         <v>755400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>753400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,14 +2123,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2205,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1998,14 +2237,20 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2281,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1274200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1408800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1413100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1407100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2355,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>236300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>191200</v>
+      </c>
+      <c r="F57" s="3">
         <v>206300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>237700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,23 +2389,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2154,29 +2421,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>306300</v>
+      </c>
+      <c r="F59" s="3">
         <v>360700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>331500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,23 +2465,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>497500</v>
+      </c>
+      <c r="F60" s="3">
         <v>573300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>575600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,23 +2503,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>460100</v>
+      </c>
+      <c r="F61" s="3">
         <v>897900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>889400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,23 +2541,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2693,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2149400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2269500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1471800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1465500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,23 +2823,29 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>244400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>241900</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2899,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1041500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1042800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,23 +3051,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-875200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-860700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-303100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-20300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-33400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-40200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-662100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-38500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>48100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F89" s="3">
         <v>32300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-31000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-195600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>247100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-175500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>27600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>209800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E8" s="3">
         <v>130800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>139500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>115500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
         <v>69700</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E9" s="3">
         <v>32200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E10" s="3">
         <v>98600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>127700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>95500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
         <v>49100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,20 +946,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -956,57 +976,63 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>574500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>1400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23900</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E17" s="3">
         <v>121300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>154200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>96000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>619700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-29200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,20 +1143,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1133,38 +1167,41 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E21" s="3">
         <v>8500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,96 +1223,105 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-662100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,20 +1334,23 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-662100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-662100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,20 +1633,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1589,61 +1659,67 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-662100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-662100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E41" s="3">
         <v>314100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>489500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>488500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>460900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54300</v>
+        <v>44400</v>
       </c>
       <c r="E43" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F43" s="3">
         <v>36400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1901,32 +1994,35 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E44" s="3">
         <v>17900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,32 +2035,35 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75700</v>
+        <v>59500</v>
       </c>
       <c r="E45" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F45" s="3">
         <v>72500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>412900</v>
+      </c>
+      <c r="E46" s="3">
         <v>461900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>610200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>656400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>653000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2053,32 +2158,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E48" s="3">
         <v>11200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,32 +2199,35 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>795300</v>
+      </c>
+      <c r="E49" s="3">
         <v>798100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>796700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>755400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>753400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,14 +2240,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,14 +2363,17 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1274200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1408800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1413100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1407100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E57" s="3">
         <v>236300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>191200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>206300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>237700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,16 +2538,16 @@
         <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F58" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>6400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2427,32 +2561,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E59" s="3">
         <v>300900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>306300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>360700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>331500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E60" s="3">
         <v>540000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>497500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>573300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>575600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,26 +2649,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E61" s="3">
         <v>266400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>460100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>897900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>889400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,26 +2690,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E62" s="3">
         <v>35800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1648700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2149400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2269500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1471800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1465500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2841,14 +3009,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>244400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>241900</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1031900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1041500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1042800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-425600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-875200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-860700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-303100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-662100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>48100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,35 +3672,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E89" s="3">
         <v>23500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-31000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,13 +3742,13 @@
         <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3535,23 +3756,26 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,35 +3853,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-195600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>247100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,35 +4157,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-175500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>209800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E8" s="3">
         <v>147700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>130800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>139500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
         <v>69700</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E9" s="3">
         <v>32400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E10" s="3">
         <v>115300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>127700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>95500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
         <v>49100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,14 +978,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>35800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -979,60 +999,66 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>574500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23900</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E17" s="3">
         <v>129800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>154200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>124100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>96000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>619700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-29200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,23 +1177,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1170,41 +1204,44 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E21" s="3">
         <v>28500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,105 +1263,114 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E23" s="3">
         <v>24100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-662100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,20 +1383,23 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>24100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-662100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-662100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,23 +1703,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1662,64 +1732,70 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-662100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-662100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>273900</v>
+      </c>
+      <c r="E41" s="3">
         <v>287800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>314100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>489500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>488500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>460900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E43" s="3">
         <v>44400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1997,35 +2090,38 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E44" s="3">
         <v>21200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,35 +2134,38 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E45" s="3">
         <v>59500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>96800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E46" s="3">
         <v>412900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>461900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>610200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>656400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>653000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2161,35 +2266,38 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E48" s="3">
         <v>12100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2202,35 +2310,38 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>796900</v>
+      </c>
+      <c r="E49" s="3">
         <v>795300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>798100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>796700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>755400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>753400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,14 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1180500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1223100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1274200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1408800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1413100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1407100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E57" s="3">
         <v>191500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>236300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>191200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>206300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>237700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,16 +2675,16 @@
         <v>2800</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G58" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>6400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2564,35 +2698,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>237200</v>
+      </c>
+      <c r="E59" s="3">
         <v>278800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>306300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>360700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>331500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>405300</v>
+      </c>
+      <c r="E60" s="3">
         <v>473000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>540000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>497500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>573300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>575600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E61" s="3">
         <v>265900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>266400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>460100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>897900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>889400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E62" s="3">
         <v>26800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1648700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2149400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2269500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1471800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1465500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3012,14 +3180,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>244400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>241900</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1024200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1031900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1041500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1042800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-425500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-425600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-875200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-860700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-303100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-662100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>48100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,38 +3889,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-31000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,25 +3953,26 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
         <v>-700</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3759,23 +3980,26 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,38 +4083,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-195600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>247100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,38 +4409,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-175500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>209800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E8" s="3">
         <v>156800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>163900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>139500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
         <v>69700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E9" s="3">
         <v>37600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E10" s="3">
         <v>119200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>115300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>98600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>127700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>95500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
         <v>49100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,14 +1000,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1002,63 +1021,69 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>574500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23900</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E17" s="3">
         <v>135100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>154200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>124100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>96000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>619700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>98900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E18" s="3">
         <v>21700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-29200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,26 +1210,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1207,44 +1240,47 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E21" s="3">
         <v>23900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,114 +1302,123 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E23" s="3">
         <v>18900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-662100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,20 +1431,23 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-662100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-662100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,26 +1772,29 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1735,67 +1804,73 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-662100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-662100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>251500</v>
+      </c>
+      <c r="E41" s="3">
         <v>273900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>287800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>314100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>489500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>488500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>460900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2144,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E43" s="3">
         <v>40500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,38 +2185,41 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E44" s="3">
         <v>14100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>21700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,38 +2232,41 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E45" s="3">
         <v>35500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>96800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>331500</v>
+      </c>
+      <c r="E46" s="3">
         <v>364000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>412900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>461900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>610200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>656400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>653000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2269,38 +2373,41 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E48" s="3">
         <v>17100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,38 +2420,41 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>797200</v>
+      </c>
+      <c r="E49" s="3">
         <v>796900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>795300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>798100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>796700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>755400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>753400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2357,14 +2467,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,14 +2608,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1151400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1180500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1223100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1274200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1408800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1413100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1407100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E57" s="3">
         <v>165400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>191500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>236300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>191200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>206300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>237700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,16 +2811,16 @@
         <v>2800</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H58" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>6400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2701,38 +2834,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E59" s="3">
         <v>237200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>278800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>306300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>360700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>331500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E60" s="3">
         <v>405300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>473000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>540000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>497500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>573300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>575600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>264900</v>
+      </c>
+      <c r="E61" s="3">
         <v>265400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>265900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>266400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>460100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>897900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>889400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E62" s="3">
         <v>29900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1534100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1606000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1648700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2149400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2269500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1471800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1465500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,14 +3350,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>244400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>241900</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1014100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1024200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1031900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1041500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1042800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-382700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-425500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-425600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-875200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-860700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-303100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-662100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>48100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4105,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-31000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,28 +4173,29 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-700</v>
       </c>
       <c r="F91" s="3">
         <v>-700</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3983,23 +4203,26 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4312,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-195600</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H100" s="3">
+        <v>42800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>247100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,41 +4660,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-175500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>209800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E8" s="3">
         <v>165000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>156800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>163900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>139500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>115500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
         <v>69700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E9" s="3">
         <v>38300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E10" s="3">
         <v>126700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>119200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>115300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>98600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>127700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>109000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>95500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
         <v>49100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,14 +1023,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1024,66 +1044,72 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>574500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23900</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E17" s="3">
         <v>140200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>135100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>121300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>154200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>124100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>96000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>619700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>98900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E18" s="3">
         <v>24800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-29200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,29 +1244,30 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1243,47 +1277,50 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E21" s="3">
         <v>28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,114 +1354,120 @@
         <v>3300</v>
       </c>
       <c r="E22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E23" s="3">
         <v>23100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-662100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-38500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1434,20 +1480,23 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E26" s="3">
         <v>24800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-662100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E27" s="3">
         <v>10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-662100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,29 +1842,32 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1807,70 +1877,76 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E33" s="3">
         <v>10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-662100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E35" s="3">
         <v>10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-662100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E41" s="3">
         <v>251500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>273900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>287800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>314100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>489500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>488500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>460900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E43" s="3">
         <v>37300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,41 +2281,44 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E44" s="3">
         <v>12800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2235,41 +2331,44 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E45" s="3">
         <v>29900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>96800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E46" s="3">
         <v>331500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>364000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>412900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>461900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>610200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>656400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>653000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2376,41 +2481,44 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,41 +2531,44 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>797100</v>
+      </c>
+      <c r="E49" s="3">
         <v>797200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>796900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>795300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>798100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>796700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>755400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>753400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,14 +2581,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,26 +2699,26 @@
         <v>4400</v>
       </c>
       <c r="E52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,14 +2731,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1227500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1151400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1180500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1223100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1274200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1408800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1413100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1407100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>218100</v>
+      </c>
+      <c r="E57" s="3">
         <v>161300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>165400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>191500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>236300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>191200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>206300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>237700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2814,16 +2948,16 @@
         <v>2800</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="I58" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>6400</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2837,41 +2971,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E59" s="3">
         <v>214000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>237200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>278800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>306300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>360700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>331500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>430600</v>
+      </c>
+      <c r="E60" s="3">
         <v>378000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>405300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>473000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>540000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>497500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>573300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>575600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,35 +3077,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>264400</v>
+      </c>
+      <c r="E61" s="3">
         <v>264900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>265400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>265900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>266400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>460100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>897900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>889400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E62" s="3">
         <v>28400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1624800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1534100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1606000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1648700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2149400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2269500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1471800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1465500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,14 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>244400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>241900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1002000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1014100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1024200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1031900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1041500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1042800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-397300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-382700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-425500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-425600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-875200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-860700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-303100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E81" s="3">
         <v>10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-662100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>48100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,44 +4322,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E89" s="3">
         <v>13000</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-31000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,31 +4394,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1300</v>
-      </c>
       <c r="F91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4206,23 +4427,26 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-195600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>42800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>247100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,44 +4912,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-175500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>209800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E8" s="3">
         <v>161100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>165000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>156800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>130800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>139500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
         <v>69700</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E9" s="3">
         <v>37800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E10" s="3">
         <v>123300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>126700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>119200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>115300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>98600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>127700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>95500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
         <v>49100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,14 +1046,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1047,69 +1067,75 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>574500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23900</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E17" s="3">
         <v>127600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>135100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>121300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>154200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>619700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E18" s="3">
         <v>33500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,32 +1278,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1280,50 +1314,53 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E21" s="3">
         <v>36400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,132 +1382,141 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
         <v>3300</v>
       </c>
       <c r="F22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>30600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-662100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,20 +1529,23 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E26" s="3">
         <v>30300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-662100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E27" s="3">
         <v>12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-40200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-662100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,32 +1912,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1880,73 +1950,79 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E33" s="3">
         <v>12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-662100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E35" s="3">
         <v>12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-662100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>306200</v>
+      </c>
+      <c r="E41" s="3">
         <v>303300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>251500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>273900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>287800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>314100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>489500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>488500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>460900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47200</v>
+        <v>46300</v>
       </c>
       <c r="E43" s="3">
-        <v>37300</v>
+        <v>46500</v>
       </c>
       <c r="F43" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G43" s="3">
         <v>40500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,44 +2377,47 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E44" s="3">
         <v>24200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,44 +2430,47 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33300</v>
+        <v>47300</v>
       </c>
       <c r="E45" s="3">
-        <v>29900</v>
+        <v>34000</v>
       </c>
       <c r="F45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="G45" s="3">
         <v>35500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>72500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>96800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>427800</v>
+      </c>
+      <c r="E46" s="3">
         <v>408000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>331500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>364000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>412900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>461900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>610200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>656400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>653000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2484,44 +2589,47 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E48" s="3">
         <v>18000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,44 +2642,47 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>797300</v>
+      </c>
+      <c r="E49" s="3">
         <v>797100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>797200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>796900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>795300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>798100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>796700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>755400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>753400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4400</v>
+        <v>81700</v>
       </c>
       <c r="E52" s="3">
         <v>4400</v>
       </c>
       <c r="F52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,14 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1324700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1227500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1151400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1180500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1223100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1274200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1408800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1413100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1407100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E57" s="3">
         <v>218100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>161300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>165400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>191500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>236300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>191200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>206300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,16 +3085,16 @@
         <v>2800</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="J58" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>6400</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2974,44 +3108,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>222100</v>
+      </c>
+      <c r="E59" s="3">
         <v>209700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>214000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>237200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>278800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>306300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>360700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>331500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>429100</v>
+      </c>
+      <c r="E60" s="3">
         <v>430600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>378000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>405300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>473000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>540000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>497500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>573300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>575600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>263900</v>
+      </c>
+      <c r="E61" s="3">
         <v>264400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>264900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>265400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>265900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>266400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>460100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>897900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>889400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E62" s="3">
         <v>28000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1624800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1534100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1606000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1648700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2149400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2269500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1471800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1465500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,14 +3692,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>244400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>241900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-971200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1002000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1014100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1024200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1031900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1041500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1042800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-293300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-397300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-382700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-425500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-425600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-875200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-860700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-303100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E81" s="3">
         <v>12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-662100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>48100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,47 +4539,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E89" s="3">
         <v>65100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13000</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-22100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-31000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,34 +4615,35 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-400</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4430,23 +4651,26 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,47 +4772,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-195600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>42800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>247100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,47 +5164,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>51700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-175500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>209800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>SEAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E8" s="3">
         <v>165400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>161100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>165000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>156800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>130800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>163900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>139500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
         <v>69700</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E9" s="3">
         <v>42600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E10" s="3">
         <v>122800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>123300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>126700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>119200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>115300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>98600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>127700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
         <v>49100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,14 +1069,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1070,72 +1090,78 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>574500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23900</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E17" s="3">
         <v>147800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>140200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>135100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>154200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>619700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E18" s="3">
         <v>17600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-29200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,35 +1312,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1317,53 +1351,56 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E21" s="3">
         <v>19300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,141 +1422,150 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3300</v>
       </c>
       <c r="F22" s="3">
         <v>3300</v>
       </c>
       <c r="G22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E23" s="3">
         <v>13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-38500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1532,20 +1578,23 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="3">
         <v>38300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-38500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E27" s="3">
         <v>30700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-40200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-38500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,35 +1982,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1953,76 +2023,82 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E33" s="3">
         <v>30700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-40200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-38500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E35" s="3">
         <v>30700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-40200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-38500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>268700</v>
+      </c>
+      <c r="E41" s="3">
         <v>306200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>303300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>251500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>273900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>287800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>314100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>489500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>488500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>460900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E43" s="3">
         <v>46300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,47 +2473,50 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E44" s="3">
         <v>28000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,47 +2529,50 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E45" s="3">
         <v>47300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>96800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>405500</v>
+      </c>
+      <c r="E46" s="3">
         <v>427800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>408000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>364000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>412900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>461900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>610200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>656400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>653000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,31 +2647,34 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2592,47 +2697,50 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>17900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2645,47 +2753,50 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>873800</v>
+      </c>
+      <c r="E49" s="3">
         <v>797300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>797100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>797200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>796900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>795300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>798100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>796700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>755400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>753400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E52" s="3">
         <v>81700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4400</v>
       </c>
       <c r="F52" s="3">
         <v>4400</v>
       </c>
       <c r="G52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1385100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1324700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1227500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1151400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1180500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1223100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1274200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1408800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1413100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1407100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E57" s="3">
         <v>204200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>218100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>161300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>165400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>191500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>236300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>191200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>206300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>237700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="E58" s="3">
         <v>2800</v>
@@ -3088,16 +3222,16 @@
         <v>2800</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K58" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>6400</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3111,47 +3245,50 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E59" s="3">
         <v>222100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>209700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>214000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>237200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>278800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>306300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>360700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>331500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>454100</v>
+      </c>
+      <c r="E60" s="3">
         <v>429100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>430600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>378000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>405300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>473000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>540000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>497500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>573300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>575600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E61" s="3">
         <v>263900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>264400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>264900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>265400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>265900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>266400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>460100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>897900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>889400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E62" s="3">
         <v>134700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1505400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1618000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1624800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1534100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1606000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1648700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2149400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2269500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1471800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1465500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,14 +3863,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>244400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>241900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-964600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-971200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1002000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1014100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1024200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1031900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1041500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1042800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1046100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1044300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-293300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-397300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-382700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-425500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-425600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-875200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-860700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-303100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E81" s="3">
         <v>30700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-40200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-38500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>48100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,50 +4756,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E89" s="3">
         <v>17600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>65100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13000</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-22100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>-31000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,37 +4836,38 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>-400</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4654,23 +4875,26 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,50 +5002,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-6400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-195600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>247100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,50 +5416,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-175500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>209800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
